--- a/site_fun/kras2.xlsx
+++ b/site_fun/kras2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aroma_site\site_fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F8780-6933-4A61-BAEC-72FB54AD397C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D6F3C-03B7-41A8-8153-E80DB3C8F75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1937,7 +1937,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
